--- a/조승제/Use case description.xlsx
+++ b/조승제/Use case description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdok1\Documents\4-1\소프트웨어공학\과제2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdok1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C4041-B40A-4E72-A356-F6BC6C0089A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D21DF4A-7A36-45BD-A457-0DB4D4E01D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>채용 정보 조회 및 지원 기능</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>Use case Descriptions</t>
-  </si>
-  <si>
-    <t>Alternative Courses
- 이미 존재하는 아이디를 회원가입 창에서 입력했을 경우 “이미 사용중인 아이디입니다” 를 출력하고 다시 입력하도록 요청합니다.</t>
   </si>
   <si>
     <t>1a. 일반회원이 웹 사이트 왼쪽 상단에 있는 툴바에서 "회사이름별" 글씨를 클릭
@@ -1693,7 +1689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1786,6 +1782,39 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1838,7 +1867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1883,13 +1912,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2113,7 +2154,7 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2141,50 +2182,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2202,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,10 +2274,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="40" x14ac:dyDescent="0.25">
@@ -2246,16 +2285,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -2267,13 +2306,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -2285,91 +2324,91 @@
         <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -2501,10 +2540,9 @@
     </row>
     <row r="124" spans="4:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
@@ -2514,6 +2552,8 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/조승제/Use case description.xlsx
+++ b/조승제/Use case description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdok1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdok1\Documents\Tips for being developer\GDSC community activity\SE-hw2\조승제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D21DF4A-7A36-45BD-A457-0DB4D4E01D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519505C2-7ADE-4595-AC57-CCBDC289E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1528,73 +1528,36 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력해준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
+      <t>회원의 로그인 정보가 맞는지 확인한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                          4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로그인 성공 화면 출력해준다.     </t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1603,7 +1566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1662,6 +1625,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1689,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1811,63 +1781,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1912,25 +1830,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2154,24 +2060,24 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.453125" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="56.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.5">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,23 +2088,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="27.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2209,23 +2115,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="33.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="65.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="21" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="40">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="40">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
@@ -2291,14 +2197,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2309,14 +2215,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="32.25" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -2327,14 +2233,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="31.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="22.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="40.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="34.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="36" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -2389,7 +2295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="48" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="45" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2411,134 +2317,134 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.5"/>
+    <row r="29" spans="1:3" ht="12.5"/>
+    <row r="30" spans="1:3" ht="12.5"/>
+    <row r="31" spans="1:3" ht="12.5"/>
+    <row r="32" spans="1:3" ht="12.5"/>
+    <row r="33" ht="12.5"/>
+    <row r="34" ht="12.5"/>
+    <row r="35" ht="12.5"/>
+    <row r="36" ht="12.5"/>
+    <row r="37" ht="12.5"/>
+    <row r="38" ht="12.5"/>
+    <row r="39" ht="12.5"/>
+    <row r="40" ht="12.5"/>
+    <row r="41" ht="12.5"/>
+    <row r="42" ht="12.5"/>
+    <row r="43" ht="12.5"/>
+    <row r="44" ht="12.5"/>
+    <row r="45" ht="12.5"/>
+    <row r="46" ht="12.5"/>
+    <row r="47" ht="12.5"/>
+    <row r="48" ht="12.5"/>
+    <row r="49" ht="12.5"/>
+    <row r="50" ht="12.5"/>
+    <row r="51" ht="12.5"/>
+    <row r="52" ht="12.5"/>
+    <row r="53" ht="12.5"/>
+    <row r="54" ht="12.5"/>
+    <row r="55" ht="12.5"/>
+    <row r="56" ht="12.5"/>
+    <row r="57" ht="12.5"/>
+    <row r="58" ht="12.5"/>
+    <row r="59" ht="12.5"/>
+    <row r="60" ht="12.5"/>
+    <row r="61" ht="12.5"/>
+    <row r="62" ht="12.5"/>
+    <row r="63" ht="12.5"/>
+    <row r="64" ht="12.5"/>
+    <row r="65" ht="12.5"/>
+    <row r="66" ht="12.5"/>
+    <row r="67" ht="12.5"/>
+    <row r="68" ht="12.5"/>
+    <row r="69" ht="12.5"/>
+    <row r="70" ht="12.5"/>
+    <row r="71" ht="12.5"/>
+    <row r="72" ht="12.5"/>
+    <row r="73" ht="12.5"/>
+    <row r="74" ht="12.5"/>
+    <row r="75" ht="12.5"/>
+    <row r="76" ht="12.5"/>
+    <row r="77" ht="12.5"/>
+    <row r="78" ht="12.5"/>
+    <row r="79" ht="12.5"/>
+    <row r="80" ht="12.5"/>
+    <row r="81" ht="12.5"/>
+    <row r="82" ht="12.5"/>
+    <row r="83" ht="12.5"/>
+    <row r="100" spans="4:4" ht="12.5">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" ht="12.5">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" ht="48" customHeight="1">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" ht="42.75" customHeight="1">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" ht="34.5" customHeight="1">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="4:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" ht="27" customHeight="1"/>
+    <row r="106" spans="4:4" ht="39" customHeight="1">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" ht="21" customHeight="1">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" ht="74.25" customHeight="1">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" ht="24" customHeight="1">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" ht="21.75" customHeight="1">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" ht="52.5" customHeight="1">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" ht="50.25" customHeight="1">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:7" ht="30" customHeight="1">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:7" ht="19.5" customHeight="1">
       <c r="D114" s="1"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="4:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:7" ht="28.5" customHeight="1">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:7" ht="24.75" customHeight="1">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:7" ht="28.5" customHeight="1">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:7" ht="48.75" customHeight="1">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:7" ht="15" customHeight="1">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:7" ht="38.25" customHeight="1">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:7" ht="27" customHeight="1">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:7" ht="27" customHeight="1">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:7" ht="46.5" customHeight="1">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="4:7" ht="42.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A17:A18"/>
